--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T07:34:56+00:00</t>
+    <t>2022-05-17T13:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
